--- a/Data/Temp/Yearly-Report-2021-RO212121.xlsx
+++ b/Data/Temp/Yearly-Report-2021-RO212121.xlsx
@@ -14,96 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <x:si>
-    <x:t>918980</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <x:si>
+    <x:t>883765</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waste management services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155797</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31159.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>523651</x:t>
   </x:si>
   <x:si>
     <x:t>Professional Services</x:t>
   </x:si>
   <x:si>
-    <x:t>67302</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13460.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80762.4</x:t>
+    <x:t>158746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31749.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>190495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>378576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265087</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53017.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>318104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Various paper supplies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17068</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102408</x:t>
   </x:si>
   <x:si>
     <x:t>EUR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-02-17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>883765</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waste management services</x:t>
-  </x:si>
-  <x:si>
-    <x:t>155797</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31159.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-04-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>523651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31749.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>190495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>378576</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265087</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53017.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>318104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-05-13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175822</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Various paper supplies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17068</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102408</x:t>
   </x:si>
   <x:si>
     <x:t>2017-05-08</x:t>
@@ -628,18 +613,18 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>21</x:v>
@@ -651,171 +636,263 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:7">
+      <x:c r="A15" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
